--- a/Övrigt/Planering/Timeplan_Nicklas_Hasselström.xlsx
+++ b/Övrigt/Planering/Timeplan_Nicklas_Hasselström.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9048" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>Week #</t>
   </si>
@@ -235,13 +236,40 @@
   </si>
   <si>
     <t>Dissertation lecture 2016-02-10 -- 21A 347</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Motivation</t>
+  </si>
+  <si>
+    <t>Chapter summary</t>
+  </si>
+  <si>
+    <t>Continua</t>
+  </si>
+  <si>
+    <t>eSense</t>
+  </si>
+  <si>
+    <t>Tieto</t>
+  </si>
+  <si>
+    <t>Mobile Gateway</t>
+  </si>
+  <si>
+    <t>Telehealth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +287,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -354,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -470,6 +505,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2146,4 +2185,156 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50">
+        <f>(B16*0.1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="50">
+        <f>(B16*0.1)</f>
+        <v>8</v>
+      </c>
+      <c r="C4" s="50">
+        <f>SUM(C5:C11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="50">
+        <f>(B16*0.3)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="50">
+        <f>(B16*0.3)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="50">
+        <f>(B16*0.1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="50">
+        <f>(B16*0.1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="50">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>